--- a/Test/MultiPSO/Explore50Exploit200/ALLCONError_100.xlsx
+++ b/Test/MultiPSO/Explore50Exploit200/ALLCONError_100.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.004505620161191238</v>
+        <v>0.00478058295002189</v>
       </c>
       <c r="B1" t="n">
-        <v>0.00292654654754956</v>
+        <v>0.003447517061889208</v>
       </c>
       <c r="C1" t="n">
-        <v>0.004817157730225468</v>
+        <v>0.00104677169327023</v>
       </c>
       <c r="D1" t="n">
-        <v>0.004681244393646725</v>
+        <v>0.002864313182633759</v>
       </c>
       <c r="E1" t="n">
-        <v>0.007415057055039169</v>
+        <v>0.001183562396831673</v>
       </c>
       <c r="F1" t="n">
-        <v>0.001164188313697617</v>
+        <v>0.002227147938720144</v>
       </c>
       <c r="G1" t="n">
-        <v>0.01793470216800414</v>
+        <v>0.002735765835164665</v>
       </c>
       <c r="H1" t="n">
-        <v>0.007873415856204592</v>
+        <v>0.002940226446823367</v>
       </c>
       <c r="I1" t="n">
-        <v>0.002017149573642526</v>
+        <v>0.0003134050048572595</v>
       </c>
       <c r="J1" t="n">
-        <v>0.01064550262842241</v>
+        <v>0.01260706177737064</v>
       </c>
     </row>
   </sheetData>
